--- a/biology/Médecine/Classe_ATC_A11/Classe_ATC_A11.xlsx
+++ b/biology/Médecine/Classe_ATC_A11/Classe_ATC_A11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A11, dénommée « Vitamines », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA11[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A11, dénommée « Vitamines », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA11. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,12 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A11AA Multivitamines et minéraux
-A11AA01 Multivitamines et fer
+          <t>A11AA Multivitamines et minéraux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A11AA01 Multivitamines et fer
 A11AA02 Multivitamines et calcium
 A11AA03 Multivitamines et autres minéraux, y compris les associations
-A11AA04 Multivitamines et oligo-éléments
-A11AB Multivitamines, autres associations</t>
+A11AA04 Multivitamines et oligo-éléments</t>
         </is>
       </c>
     </row>
@@ -543,12 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A11B Multivitamines, non associées</t>
+          <t>A11C Vitamine A et D, y compris l'association des deux</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A11BA Multivitamines, non associées</t>
+          <t>A11CA Vitamine A, non associée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A11CA01 Rétinol (vit A)
+A11CA02 Β-carotène</t>
         </is>
       </c>
     </row>
@@ -578,12 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A11CA Vitamine A, non associée
-A11CA01 Rétinol (vit A)
-A11CA02 Β-carotène
-A11CB Vitamine A et D en association
-A11CC Vitamine D et analogues
-A11CC01 Ergocalciférol
+          <t>A11CC Vitamine D et analogues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A11CC01 Ergocalciférol
 A11CC02 Dihydrotachystérol
 A11CC03 Alfacalcidol
 A11CC04 Calcitriol
@@ -620,11 +644,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A11DA Vitamine B1, non associée
-A11DA01 Thiamine (vit B1)
+          <t>A11DA Vitamine B1, non associée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A11DA01 Thiamine (vit B1)
 A11DA02 Sulbutiamine
-A11DA03 Benfotiamine
-A11DB Vitamine B1 en association avec les vitamines B6 et/ou B12</t>
+A11DA03 Benfotiamine</t>
         </is>
       </c>
     </row>
@@ -649,16 +677,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A11E Vitamine B-complexe, y compris les associations</t>
+          <t>A11G Acide ascorbique (vitamine C), y compris les associations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A11EA Vitamine B-complexe, non associée
-A11EB Vitamine B-complexe avec la vitamine C
-A11EC Vitamine B-complexe avec minéraux
-A11ED Vitamine B-complexe avec stéroïde anabolisant
-A11EX Vitamine B-complexe, autres associations</t>
+          <t>A11GA Acide ascorbique (vitamine C), non associée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A11GA01 Acide ascorbique (vitamine C)</t>
         </is>
       </c>
     </row>
@@ -688,10 +718,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A11GA Acide ascorbique (vitamine C), non associée
-A11GA01 Acide ascorbique (vitamine C)
-A11GB Acide ascorbique (vitamine C), associations
-A11GB01 Acide ascorbique (vitamine C) et calcium</t>
+          <t>A11GB Acide ascorbique (vitamine C), associations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A11GB01 Acide ascorbique (vitamine C) et calcium</t>
         </is>
       </c>
     </row>
@@ -721,8 +754,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A11HA Autres préparations à base de vitamines seules
-A11HA01 Nicotinamide
+          <t>A11HA Autres préparations à base de vitamines seules</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A11HA01 Nicotinamide
 A11HA02 Pyridoxine (vit B6)
 A11HA03 Tocophérol (vit E)
 A11HA04 Riboflavine (vit B2)
@@ -736,38 +774,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A11</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>A11J Autres produits à base de vitamines, associations</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A11JA Associations de vitamines
-A11JB Vitamines et minéraux
-A11JC Vitamines, autres associations</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
